--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A906190-B3C6-4388-8E30-8321688E3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5D54A-D898-44C9-AA42-5527A966E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="450" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -289,28 +282,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル以下の表示</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「キャンセル」を押下</t>
     <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「完了」を押下</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -499,13 +472,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URL直打ち</t>
-    <rPh sb="3" eb="5">
-      <t>ジカウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン前メニュー画面へ遷移すること</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -516,6 +482,146 @@
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品購入履歴画面へ遷移すること</t>
+    <rPh sb="0" eb="6">
+      <t>ショウヒンコウニュウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品購入履歴」リンクを押下</t>
+    <rPh sb="1" eb="7">
+      <t>ショウヒンコウニュウリレキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」を押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」を押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品修正(入力)画面へ遷移し、セッションが保持されていること</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し、セッションが破棄されていること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateproduct/confirm」
+を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8081/updateproduct/confirm」
+を入力</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -822,7 +928,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,130 +982,121 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1351,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1370,56 +1467,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1432,50 +1529,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1484,20 +1581,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1507,82 +1604,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1594,18 +1691,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1617,18 +1714,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1640,18 +1737,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1663,18 +1760,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1686,18 +1783,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1705,226 +1802,377 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="C14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="57.5" customHeight="1">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:17" ht="11">
+      <c r="A15" s="6"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" ht="14" customHeight="1">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
+    <row r="16" spans="1:17" ht="11">
+      <c r="A16" s="6"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:17" ht="13" customHeight="1">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
+    <row r="17" spans="1:17" ht="11">
+      <c r="A17" s="6"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.5" customHeight="1">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" ht="11">
+      <c r="A19" s="6"/>
+      <c r="B19" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" ht="13" customHeight="1">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" ht="11">
+      <c r="A20" s="6"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="1:17" ht="13" customHeight="1">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" ht="11">
+      <c r="A21" s="6"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" ht="11">
+      <c r="A22" s="6"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" ht="11">
+      <c r="A23" s="6"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" ht="26.5" customHeight="1">
+      <c r="A24" s="6">
+        <v>14</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="32" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>15</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="34" customHeight="1">
+      <c r="A27" s="6">
+        <v>16</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.5" customHeight="1">
+      <c r="C28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C14:G14"/>
+  <mergeCells count="57">
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -1935,23 +2183,27 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C16:G18"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5D54A-D898-44C9-AA42-5527A966E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60B4F8-12A7-4904-A051-90FB7C8D9E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -615,12 +615,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateproduct/confirm」
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/confirm」
 を入力</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8081/updateproduct/confirm」
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8081/admin/updateproduct/confirm」
 を入力</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -928,7 +928,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,12 +981,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -996,15 +1017,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1023,6 +1035,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,59 +1092,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1450,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1467,25 +1464,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,23 +1497,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1529,50 +1526,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1581,20 +1578,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1604,82 +1601,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1691,18 +1688,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1714,18 +1711,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1737,18 +1734,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1760,18 +1757,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1783,18 +1780,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1804,20 +1801,20 @@
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1827,18 +1824,18 @@
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="23" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1848,18 +1845,18 @@
     <row r="16" spans="1:17" ht="11">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1869,18 +1866,18 @@
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1891,21 +1888,21 @@
       <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1914,23 +1911,23 @@
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1939,21 +1936,21 @@
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1962,21 +1959,21 @@
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1985,21 +1982,21 @@
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="19" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2008,21 +2005,21 @@
     </row>
     <row r="23" spans="1:17" ht="11">
       <c r="A23" s="6"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2033,44 +2030,44 @@
       <c r="A24" s="6">
         <v>14</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="32" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2081,117 +2078,72 @@
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="34" customHeight="1">
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>16</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="33.5" customHeight="1">
-      <c r="C28" s="18" t="s">
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="69" customHeight="1">
+      <c r="C28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
@@ -2204,6 +2156,51 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60B4F8-12A7-4904-A051-90FB7C8D9E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475504C1-EE52-4EC3-A951-1B4BCDD297F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -622,6 +622,27 @@
   <si>
     <t>ログインしていない状態でアドレスバーに直接「http://localhost:8081/admin/updateproduct/confirm」
 を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -928,7 +949,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,9 +1006,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,13 +1035,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1464,25 +1494,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,23 +1527,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1526,50 +1556,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1578,20 +1608,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1601,82 +1631,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1688,18 +1718,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1711,18 +1741,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1734,18 +1764,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1757,18 +1787,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1780,18 +1810,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1799,22 +1829,24 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="19" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1822,20 +1854,22 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="11">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1843,20 +1877,22 @@
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1864,20 +1900,22 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1886,23 +1924,23 @@
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1910,24 +1948,26 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1935,22 +1975,24 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1958,22 +2000,24 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1981,22 +2025,24 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2004,22 +2050,24 @@
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2028,123 +2076,158 @@
     </row>
     <row r="24" spans="1:17" ht="26.5" customHeight="1">
       <c r="A24" s="6">
-        <v>14</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="32" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
-        <v>15</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
-        <v>16</v>
-      </c>
-      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="P27:Q27"/>
+  <mergeCells count="62">
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P26:Q26"/>
@@ -2187,8 +2270,6 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C22:G22"/>
@@ -2199,8 +2280,16 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475504C1-EE52-4EC3-A951-1B4BCDD297F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF37CD-EEA4-4764-8A08-5E5FA2120F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>作成者</t>
   </si>
@@ -308,16 +308,6 @@
   <si>
     <t>商品修正（確認）</t>
     <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品修正(確認)」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -642,6 +632,88 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品修正(確認)画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに推移</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力前の商品情報に合わせるべきなのか、入力後の商品情報が保持されているべきなのか</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニューに遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1005,17 +1077,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1025,105 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1477,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1494,30 +1566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1527,23 +1599,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1556,50 +1628,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1608,20 +1680,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1631,85 +1703,91 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="57"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1718,21 +1796,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1741,21 +1821,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1764,21 +1846,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1787,21 +1871,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1810,21 +1896,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1833,23 +1921,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -1858,21 +1948,23 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -1881,21 +1973,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -1904,21 +1998,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -1927,23 +2023,25 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="20" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -1951,26 +2049,28 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="19" t="s">
+      <c r="C19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
@@ -1978,24 +2078,26 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
@@ -2003,24 +2105,26 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="19" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
@@ -2028,24 +2132,26 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
@@ -2053,173 +2159,187 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="16"/>
+      <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="26.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="O24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="32" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="25"/>
+      <c r="O25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2228,6 +2348,56 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P26:Q26"/>
@@ -2239,57 +2409,7 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
     <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF37CD-EEA4-4764-8A08-5E5FA2120F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC0034-F689-4443-9D5A-1576A0811B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -653,16 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -715,6 +705,10 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1077,6 +1071,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1086,21 +1113,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1119,11 +1131,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,54 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1549,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1566,25 +1560,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,23 +1593,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1628,50 +1622,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1680,20 +1674,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1703,86 +1697,86 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
@@ -1796,18 +1790,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
@@ -1821,18 +1815,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
@@ -1846,18 +1840,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
@@ -1871,18 +1865,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
@@ -1896,18 +1890,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
@@ -1921,20 +1915,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
@@ -1948,18 +1942,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
@@ -1973,18 +1967,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
@@ -1998,18 +1992,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
@@ -2023,20 +2017,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
@@ -2049,23 +2043,23 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
@@ -2078,21 +2072,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
@@ -2105,21 +2099,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
@@ -2132,21 +2126,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
@@ -2159,28 +2153,28 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="Q23" s="17"/>
     </row>
@@ -2188,158 +2182,158 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="32" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="56" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2348,6 +2342,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="H29:L29"/>
@@ -2364,52 +2404,6 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC0034-F689-4443-9D5A-1576A0811B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DE1B2-C3C6-476C-ABB1-51296F23EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -709,6 +709,26 @@
   </si>
   <si>
     <t>×〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作です」と表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1083,6 +1103,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1092,104 +1208,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1543,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1560,25 +1580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,23 +1613,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1622,50 +1642,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1674,20 +1694,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1697,16 +1717,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="57"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1723,8 +1743,12 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
@@ -1735,7 +1759,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1743,15 +1767,19 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
@@ -1763,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1777,8 +1805,12 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O8" s="7" t="s">
         <v>64</v>
       </c>
@@ -1790,11 +1822,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
@@ -1802,8 +1834,12 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>64</v>
       </c>
@@ -1815,11 +1851,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="20" t="s">
         <v>27</v>
       </c>
@@ -1827,8 +1863,12 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
       </c>
@@ -1840,11 +1880,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
@@ -1852,8 +1892,12 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
@@ -1865,11 +1909,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
@@ -1877,8 +1921,12 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>64</v>
       </c>
@@ -1890,11 +1938,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1902,8 +1950,12 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
@@ -1915,22 +1967,26 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="29" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>64</v>
       </c>
@@ -1942,11 +1998,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="20" t="s">
         <v>41</v>
       </c>
@@ -1954,8 +2010,12 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>64</v>
       </c>
@@ -1967,11 +2027,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="20" t="s">
         <v>42</v>
       </c>
@@ -1979,8 +2039,12 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O16" s="7" t="s">
         <v>64</v>
       </c>
@@ -1992,11 +2056,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="20" t="s">
         <v>43</v>
       </c>
@@ -2004,8 +2068,12 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
@@ -2017,13 +2085,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="20" t="s">
         <v>30</v>
       </c>
@@ -2031,8 +2099,12 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O18" s="7" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2115,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2060,8 +2132,12 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O19" s="7" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2148,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="20" t="s">
         <v>48</v>
       </c>
@@ -2087,8 +2163,12 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O20" s="7" t="s">
         <v>64</v>
       </c>
@@ -2099,7 +2179,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="20" t="s">
         <v>54</v>
       </c>
@@ -2114,8 +2194,12 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2126,7 +2210,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="20" t="s">
         <v>50</v>
       </c>
@@ -2141,8 +2225,12 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2153,8 +2241,8 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="19"/>
@@ -2168,8 +2256,12 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O23" s="7" t="s">
         <v>69</v>
       </c>
@@ -2182,23 +2274,27 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O24" s="7" t="s">
         <v>65</v>
       </c>
@@ -2211,23 +2307,27 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2240,23 +2340,27 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O26" s="7" t="s">
         <v>64</v>
       </c>
@@ -2267,18 +2371,18 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="19" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -2294,14 +2398,14 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="19" t="s">
         <v>45</v>
       </c>
@@ -2309,9 +2413,15 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="M28" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
@@ -2319,7 +2429,7 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
@@ -2327,13 +2437,13 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2342,55 +2452,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C28:G28"/>
@@ -2404,6 +2465,55 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DE1B2-C3C6-476C-ABB1-51296F23EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E62ABC-49F2-4C58-AE9F-7441AC038857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>作成者</t>
   </si>
@@ -589,22 +589,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品検索画面へ遷移し、セッションが破棄されていること</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/confirm」
 を入力</t>
     <phoneticPr fontId="2"/>
@@ -653,81 +637,146 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニューに推移</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>スイイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力前の商品情報に合わせるべきなのか、入力後の商品情報が保持されているべきなのか</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニューに遷移する</t>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作です」と表示されること</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに推移（修正済み）</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニューに遷移する→商品検索画面に推移するように変更（修正済み）
+sessionを破棄することは難しため保留</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シュウセイズ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し（合格）、セッションが破棄されていること（保留）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力前の商品情報に合わせるべきなのか、入力後の商品情報が保持されているべきなのか
+→本システムでは変更前のsessionを保持することとした</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「システムエラー画面」に遷移すること</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1091,21 +1140,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1115,6 +1173,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1133,11 +1200,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,54 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1563,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1580,25 +1629,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,23 +1662,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1639,53 +1688,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1694,20 +1745,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1717,102 +1768,102 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1822,26 +1873,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1851,26 +1902,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1880,26 +1931,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1909,26 +1960,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1938,26 +1989,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -1967,28 +2018,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -1998,26 +2049,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="20" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2027,26 +2078,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2056,26 +2107,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2085,28 +2136,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="20" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2115,31 +2166,31 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2148,29 +2199,29 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2179,29 +2230,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
@@ -2210,29 +2261,29 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="19" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -2241,217 +2292,276 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="26.5" customHeight="1">
+    <row r="24" spans="1:17" ht="76.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="32" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="25"/>
+    </row>
+    <row r="25" spans="1:17" ht="53" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="19" t="s">
+      <c r="C27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="15">
+        <v>45505</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="15">
+        <v>45505</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C28:G28"/>
@@ -2465,53 +2575,6 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
   </mergeCells>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E62ABC-49F2-4C58-AE9F-7441AC038857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042C565-AFF7-49EE-A777-FA8CB3C7FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -777,6 +777,16 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1084,7 +1094,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,160 +1114,157 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1629,25 +1636,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,890 +1669,874 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>65</v>
+      <c r="Q2" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="57"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="15">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="57">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="15">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="57">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="15">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="57">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="22" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="15">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="57">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="22" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="15">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="57">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="22" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="15">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="57">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="15">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="57">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="22" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="15">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="57">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="15">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="57">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="22" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="15">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="57">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="11">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="22" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="15">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="57">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="22" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="15">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="57">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="15">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="57">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="15">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="57">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="15">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="57">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="15">
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="57">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="15">
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="57">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="11">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="15">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="57">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="76.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="15">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="57">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" s="25"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="53" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="15">
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="57">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="23"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="15">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="57">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="15">
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="57">
         <v>45505</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="15">
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="57">
         <v>45504</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="30" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="15">
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="57">
         <v>45505</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P28:Q28"/>
@@ -2562,21 +2553,37 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042C565-AFF7-49EE-A777-FA8CB3C7FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC1CA2-C272-4D5F-AE6A-E2A077957329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>作成者</t>
   </si>
@@ -787,6 +787,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1144,15 +1151,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1162,6 +1187,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1180,17 +1214,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,57 +1272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1636,25 +1643,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,23 +1676,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1700,50 +1707,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1752,20 +1759,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1775,33 +1782,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="57">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="17">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1810,29 +1817,29 @@
       <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="57">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="17">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1841,29 +1848,29 @@
       <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="57">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="17">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1880,19 +1887,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="57">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="17">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1909,19 +1916,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="17" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="57">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="17">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1938,19 +1945,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="17" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="57">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="17">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1967,19 +1974,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="57">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="17">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1996,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="17" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="57">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="17">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2025,21 +2032,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="57">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="17">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2056,19 +2063,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="17" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="57">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="17">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2085,19 +2092,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="17" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="57">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="17">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2114,19 +2121,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="17" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="57">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="17">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2143,21 +2150,21 @@
         <v>13</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="17" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="57">
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="17">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2173,24 +2180,24 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="57">
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="17">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2206,22 +2213,22 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="57">
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="17">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2237,29 +2244,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="57">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="17">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
@@ -2268,22 +2275,22 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="57">
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="17">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2299,22 +2306,22 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="57">
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="17">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2332,22 +2339,22 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="57">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="17">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2356,31 +2363,31 @@
       <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="53" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="57">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="17">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2389,31 +2396,31 @@
       <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="57">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="17">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2422,31 +2429,31 @@
       <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="31" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="57">
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="17">
         <v>45505</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2455,29 +2462,29 @@
       <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="57">
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="17">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2486,29 +2493,29 @@
       <c r="O28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="53" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="57">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="17">
         <v>45505</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -2522,21 +2529,37 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P28:Q28"/>
@@ -2553,37 +2576,21 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP010商品修正(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC1CA2-C272-4D5F-AE6A-E2A077957329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F60560-D5FE-4E54-B07D-6B37BE913EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -767,16 +767,6 @@
     </rPh>
     <rPh sb="61" eb="63">
       <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「システムエラー画面」に遷移すること</t>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1154,125 +1144,125 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1626,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1643,25 +1633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,23 +1666,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1703,54 +1693,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1759,20 +1749,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1782,32 +1772,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="17">
         <v>45504</v>
       </c>
@@ -1817,28 +1807,28 @@
       <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="17">
         <v>45504</v>
       </c>
@@ -1848,28 +1838,28 @@
       <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="17">
         <v>45504</v>
       </c>
@@ -1887,18 +1877,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="17">
         <v>45504</v>
       </c>
@@ -1916,18 +1906,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="17">
         <v>45504</v>
       </c>
@@ -1945,18 +1935,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="17">
         <v>45504</v>
       </c>
@@ -1974,18 +1964,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="21" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="17">
         <v>45504</v>
       </c>
@@ -2003,18 +1993,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="17">
         <v>45504</v>
       </c>
@@ -2032,20 +2022,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="17">
         <v>45504</v>
       </c>
@@ -2063,18 +2053,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="21" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="17">
         <v>45504</v>
       </c>
@@ -2092,18 +2082,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="21" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="17">
         <v>45504</v>
       </c>
@@ -2121,18 +2111,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="21" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="17">
         <v>45504</v>
       </c>
@@ -2150,20 +2140,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="21" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="17">
         <v>45504</v>
       </c>
@@ -2180,23 +2170,23 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="17">
         <v>45504</v>
       </c>
@@ -2213,21 +2203,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="17">
         <v>45504</v>
       </c>
@@ -2244,21 +2234,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="17">
         <v>45504</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>64</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
@@ -2275,21 +2265,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="17">
         <v>45504</v>
       </c>
@@ -2306,21 +2296,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="17">
         <v>45504</v>
       </c>
@@ -2339,21 +2329,21 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="17">
         <v>45504</v>
       </c>
@@ -2363,30 +2353,30 @@
       <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" s="24"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" ht="53" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="17">
         <v>45504</v>
       </c>
@@ -2396,30 +2386,30 @@
       <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="17">
         <v>45504</v>
       </c>
@@ -2429,30 +2419,30 @@
       <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:17" ht="63" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="17">
         <v>45505</v>
       </c>
@@ -2462,28 +2452,28 @@
       <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="17">
         <v>45504</v>
       </c>
@@ -2493,28 +2483,28 @@
       <c r="O28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="29" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
       <c r="M29" s="17">
         <v>45505</v>
       </c>
@@ -2529,37 +2519,21 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P28:Q28"/>
@@ -2576,21 +2550,37 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
